--- a/College_Scoreboard_Data_Dictionary.xlsx
+++ b/College_Scoreboard_Data_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertrichardson/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7a859317ed18ba2/Desktop/CaseStudySchoolProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3886C8AA-D9AB-3843-A8C4-570EC3F1631F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{3886C8AA-D9AB-3843-A8C4-570EC3F1631F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{556CD8EB-EA2C-41F4-90E0-AE863ADA5DCD}"/>
   <bookViews>
-    <workbookView xWindow="18080" yWindow="760" windowWidth="32280" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,549 +148,549 @@
     <t>NUMBRANCH</t>
   </si>
   <si>
-    <t>Highest degree awarded_x000D_
- 0 Non-degree-granting_x000D_
- 1 Certificate degree_x000D_
- 2 Associate degree_x000D_
- 3 Bachelor's degree_x000D_
+    <t>degrees_awarded.highest</t>
+  </si>
+  <si>
+    <t>HIGHDEG</t>
+  </si>
+  <si>
+    <t>Non-degree-granting</t>
+  </si>
+  <si>
+    <t>Certificate degree</t>
+  </si>
+  <si>
+    <t>Associate degree</t>
+  </si>
+  <si>
+    <t>Bachelor's degree</t>
+  </si>
+  <si>
+    <t>Graduate degree</t>
+  </si>
+  <si>
+    <t>Region (IPEDS)</t>
+  </si>
+  <si>
+    <t>region_id</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>U.S. Service Schools</t>
+  </si>
+  <si>
+    <t>New England (CT, ME, MA, NH, RI, VT)</t>
+  </si>
+  <si>
+    <t>Mid East (DE, DC, MD, NJ, NY, PA)</t>
+  </si>
+  <si>
+    <t>Great Lakes (IL, IN, MI, OH, WI)</t>
+  </si>
+  <si>
+    <t>Plains (IA, KS, MN, MO, NE, ND, SD)</t>
+  </si>
+  <si>
+    <t>Southeast (AL, AR, FL, GA, KY, LA, MS, NC, SC, TN, VA, WV)</t>
+  </si>
+  <si>
+    <t>Southwest (AZ, NM, OK, TX)</t>
+  </si>
+  <si>
+    <t>Rocky Mountains (CO, ID, MT, UT, WY)</t>
+  </si>
+  <si>
+    <t>Far West (AK, CA, HI, NV, OR, WA)</t>
+  </si>
+  <si>
+    <t>Outlying Areas (AS, FM, GU, MH, MP, PR, PW, VI)</t>
+  </si>
+  <si>
+    <t>Locale of institution</t>
+  </si>
+  <si>
+    <t>locale</t>
+  </si>
+  <si>
+    <t>LOCALE</t>
+  </si>
+  <si>
+    <t>City: Large (population of 250,000 or more)</t>
+  </si>
+  <si>
+    <t>City: Midsize (population of at least 100,000 but less than 250,000)</t>
+  </si>
+  <si>
+    <t>City: Small (population less than 100,000)</t>
+  </si>
+  <si>
+    <t>Suburb: Large (outside principal city, in urbanized area with population of 250,000 or more)</t>
+  </si>
+  <si>
+    <t>Suburb: Midsize (outside principal city, in urbanized area with population of at least 100,000 but less than 250,000)</t>
+  </si>
+  <si>
+    <t>Suburb: Small (outside principal city, in urbanized area with population less than 100,000)</t>
+  </si>
+  <si>
+    <t>Town: Fringe (in urban cluster up to 10 miles from an urbanized area)</t>
+  </si>
+  <si>
+    <t>Town: Distant (in urban cluster more than 10 miles and up to 35 miles from an urbanized area)</t>
+  </si>
+  <si>
+    <t>Town: Remote (in urban cluster more than 35 miles from an urbanized area)</t>
+  </si>
+  <si>
+    <t>Rural: Fringe (rural territory up to 5 miles from an urbanized area or up to 2.5 miles from an urban cluster)</t>
+  </si>
+  <si>
+    <t>Rural: Distant (rural territory more than 5 miles but up to 25 miles from an urbanized area or more than 2.5 and up to 10 miles from an urban cluster)</t>
+  </si>
+  <si>
+    <t>Rural: Remote (rural territory more than 25 miles from an urbanized area and more than 10 miles from an urban cluster)</t>
+  </si>
+  <si>
+    <t>Degree of urbanization of institution</t>
+  </si>
+  <si>
+    <t>degree_urbanization</t>
+  </si>
+  <si>
+    <t>LOCALE2</t>
+  </si>
+  <si>
+    <t>Large City (a central city of a CMSA or MSA, with the city having a population greater than or equal to 250,000)</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
+    <t>Mid-Size City (a central city of a CMSA or MSA, with the city having a population less than 250,000)</t>
+  </si>
+  <si>
+    <t>Urban Fringe of a Large City (any territory within a CMSA or MSA of a Large City and defined as urban by the Census Bureau)</t>
+  </si>
+  <si>
+    <t>Urban Fringe of a Mid-Size City (any territory within a CMSA or MSA of a Mid-Size City and defined as urban by the Census Bureau)</t>
+  </si>
+  <si>
+    <t>Large Town (an incorporated place or Census-designated place with a population greater than or equal to 25,000 and located outside a CMSA or MSA)</t>
+  </si>
+  <si>
+    <t>Small Town (an incorporated place or Census-designated place with a population less than 25,000 and greater than or equal to 2,500 and located outside a CMSA or MSA)</t>
+  </si>
+  <si>
+    <t>Rural, Outside MSA (any territory designated as rural by the Census Bureau that is outside a CMSA or MSA of a Large or Mid-Size City)</t>
+  </si>
+  <si>
+    <t>Rural, Inside MSA (any territory designated as rural by the Census Bureau that is within a CMSA or MSA of a Large or Mid-Size City)</t>
+  </si>
+  <si>
+    <t>Carnegie Classification -- size and setting</t>
+  </si>
+  <si>
+    <t>carnegie_size_setting</t>
+  </si>
+  <si>
+    <t>CCSIZSET</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>(Not classified)</t>
+  </si>
+  <si>
+    <t>Two-year, very small</t>
+  </si>
+  <si>
+    <t>Two-year, small</t>
+  </si>
+  <si>
+    <t>Two-year, medium</t>
+  </si>
+  <si>
+    <t>Two-year, large</t>
+  </si>
+  <si>
+    <t>Two-year, very large</t>
+  </si>
+  <si>
+    <t>Four-year, very small, primarily nonresidential</t>
+  </si>
+  <si>
+    <t>Four-year, very small, primarily residential</t>
+  </si>
+  <si>
+    <t>Four-year, very small, highly residential</t>
+  </si>
+  <si>
+    <t>Four-year, small, primarily nonresidential</t>
+  </si>
+  <si>
+    <t>Four-year, small, primarily residential</t>
+  </si>
+  <si>
+    <t>Four-year, small, highly residential</t>
+  </si>
+  <si>
+    <t>Four-year, medium, primarily nonresidential</t>
+  </si>
+  <si>
+    <t>Four-year, medium, primarily residential</t>
+  </si>
+  <si>
+    <t>Four-year, medium, highly residential</t>
+  </si>
+  <si>
+    <t>Four-year, large, primarily nonresidential</t>
+  </si>
+  <si>
+    <t>Four-year, large, primarily residential</t>
+  </si>
+  <si>
+    <t>Four-year, large, highly residential</t>
+  </si>
+  <si>
+    <t>Exclusively graduate/professional</t>
+  </si>
+  <si>
+    <t>Admission rate</t>
+  </si>
+  <si>
+    <t>admissions</t>
+  </si>
+  <si>
+    <t>admission_rate.overall</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>ADM_RATE</t>
+  </si>
+  <si>
+    <t>Midpoint of the ACT cumulative score</t>
+  </si>
+  <si>
+    <t>act_scores.midpoint.cumulative</t>
+  </si>
+  <si>
+    <t>ACTCMMID</t>
+  </si>
+  <si>
+    <t>Average SAT equivalent score of students admitted</t>
+  </si>
+  <si>
+    <t>sat_scores.average.overall</t>
+  </si>
+  <si>
+    <t>SAT_AVG</t>
+  </si>
+  <si>
+    <t>Enrollment of undergraduate certificate/degree-seeking students</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>UGDS</t>
+  </si>
+  <si>
+    <t>Not available in 2000-2001 datafile</t>
+  </si>
+  <si>
+    <t>Total share of enrollment of undergraduate degree-seeking students who are white</t>
+  </si>
+  <si>
+    <t>demographics.race_ethnicity.white</t>
+  </si>
+  <si>
+    <t>UGDS_WHITE</t>
+  </si>
+  <si>
+    <t>Not available in all datafiles due to changing race/ethnicity category definitions over time. See data_cohort_map</t>
+  </si>
+  <si>
+    <t>Total share of enrollment of undergraduate degree-seeking students who are black</t>
+  </si>
+  <si>
+    <t>demographics.race_ethnicity.black</t>
+  </si>
+  <si>
+    <t>UGDS_BLACK</t>
+  </si>
+  <si>
+    <t>Total share of enrollment of undergraduate degree-seeking students who are Hispanic</t>
+  </si>
+  <si>
+    <t>demographics.race_ethnicity.hispanic</t>
+  </si>
+  <si>
+    <t>UGDS_HISP</t>
+  </si>
+  <si>
+    <t>Total share of enrollment of undergraduate degree-seeking students who are Asian</t>
+  </si>
+  <si>
+    <t>demographics.race_ethnicity.asian</t>
+  </si>
+  <si>
+    <t>UGDS_ASIAN</t>
+  </si>
+  <si>
+    <t>In-state tuition and fees</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>tuition.in_state</t>
+  </si>
+  <si>
+    <t>TUITIONFEE_IN</t>
+  </si>
+  <si>
+    <t>Out-of-state tuition and fees</t>
+  </si>
+  <si>
+    <t>tuition.out_of_state</t>
+  </si>
+  <si>
+    <t>TUITIONFEE_OUT</t>
+  </si>
+  <si>
+    <t>Average faculty salary</t>
+  </si>
+  <si>
+    <t>faculty_salary</t>
+  </si>
+  <si>
+    <t>AVGFACSAL</t>
+  </si>
+  <si>
+    <t>Average faculty salary per month, calculated from the IPEDS Human Resources component. This metric is calculated as the total salary outlays divided by the number of months worked for all full-time nonmedical instructional staff. Prior to the 2011-12 academic year, when months worked were reported in groups, the value for 9-10 months is estimated as 9.5 months and the value for 11-12 months is estimated as 11.5 months. Values prior to the 2003-04 academic year are limited to degree-granting institutions for consistency with values in subsequent academic years.</t>
+  </si>
+  <si>
+    <t>Proportion of faculty that is full-time</t>
+  </si>
+  <si>
+    <t>ft_faculty_rate</t>
+  </si>
+  <si>
+    <t>PFTFAC</t>
+  </si>
+  <si>
+    <t>Proportion of faculty that are employed full time, calculated from the IPEDS Human Resources component. This metric is calculated as the number of full-time nonmedical faculty divided by the total number of nonmedical faculty. Proportions are expressed as decimals rounded to four decimal places, so, for example, 0.1234 equals 12.34 percent.</t>
+  </si>
+  <si>
+    <t>Percentage of undergraduates who receive a Pell Grant</t>
+  </si>
+  <si>
+    <t>aid</t>
+  </si>
+  <si>
+    <t>pell_grant_rate</t>
+  </si>
+  <si>
+    <t>PCTPELL</t>
+  </si>
+  <si>
+    <t>The proportion of undergraduates who received a Pell grant in the academic year, calculated from the IPEDS Student Financial Aid component. This metric is calculated by IPEDS as the quotient of the number of Pell grant recipients divided by the count of all undergraduates for either a fall enrollment cohort (for institutions that primarily follow an academic year calendar system) or a full-year enrollment cohort (for institutions that primarily follow a continuous enrollment or program-based calendar system). Proportions are expressed as decimals rounded to four decimal places, so, for example, 0.1234 equals 12.34 percent. This metric is not available prior to the 2008-09 academic year.</t>
+  </si>
+  <si>
+    <t>Completion rate for first-time, full-time students at four-year institutions (150% of expected time to completion)</t>
+  </si>
+  <si>
+    <t>completion</t>
+  </si>
+  <si>
+    <t>completion_rate_4yr_150nt</t>
+  </si>
+  <si>
+    <t>C150_4</t>
+  </si>
+  <si>
+    <t>The proportion of full-time, first-time, degree/certificate-seeking undergraduates who completed a degree or certificate at the institution within 150 percent of normal time, calculated from the IPEDS Graduation Rates component. Separate metrics are calculated for 4-year institutions and less-than-4-year institutions. This metric is calculated as the number of full-time, first-time, degree/certificate-seeking undergraduates who completed a degree or certificate divided by the number of full-time, first-time, degree/certificate-seeking undergraduates in the corresponding completion rate cohort (D150_4, D150_L4). For full-time, first-time, bachelor's degree-seeking undergraduates, 150 percent of normal time is typically 6 years, and for full-time, first-time, associate's degree-seeking undergraduates it is typically 3 years. For full-time, first-time, certificate-seeking undergraduates, the normal time period varies by the length of the program (for example, 9 months for a certificate with a normal completion time of 6 months). Proportions are expressed as decimals rounded to four decimal places, so, for example, 0.1234 equals 12.34 percent. Pooled figures include two cohorts of students.</t>
+  </si>
+  <si>
+    <t>First-time, full-time student retention rate at four-year institutions</t>
+  </si>
+  <si>
+    <t>retention_rate.four_year.full_time</t>
+  </si>
+  <si>
+    <t>RET_FT4</t>
+  </si>
+  <si>
+    <t>The proportion of full-time, first-time, degree/certificate-seeking undergraduates who were enrolled at the institution in the fall 1 year after starting at the institution, calculated from the IPEDS Fall Enrollment component. Separate metrics are calculated for 4-year institutions and less-than-4-year institutions. The retention rate is calculated as the number of full-time, first-time, degree/certificate-seeking undergraduates enrolled in the fall of the prior academic year that are enrolled in the fall term of the current academic year divided by the number of full-time, first-time, degree/certificate-seeking undergraduates enrolled in the fall of the prior academic year. For 4-year institutions, this metric is limited to full-time, first-time, bachelor's or equivalent degree-seeking undergraduate students. For less-than-4-year institutions, this metric applies to all full-time, first-time, degree/certificate-seeking undergraduate students. This metric is not available prior to the 2004-05 academic year. Proportions are expressed as decimals rounded to four decimal places, so, for example, 0.1234 equals 12.34 percent.</t>
+  </si>
+  <si>
+    <t>Median earnings of students working and not enrolled 10 years after entry</t>
+  </si>
+  <si>
+    <t>earnings</t>
+  </si>
+  <si>
+    <t>10_yrs_after_entry.median</t>
+  </si>
+  <si>
+    <t>MD_EARN_WNE_P10</t>
+  </si>
+  <si>
+    <t>Treasury</t>
+  </si>
+  <si>
+    <t>Total share of enrollment of undergraduate degree-seeking students who are men</t>
+  </si>
+  <si>
+    <t>demographics.men</t>
+  </si>
+  <si>
+    <t>UGDS_MEN</t>
+  </si>
+  <si>
+    <t>Total share of enrollment of undergraduate degree-seeking students who are women</t>
+  </si>
+  <si>
+    <t>demographics.women</t>
+  </si>
+  <si>
+    <t>UGDS_WOMEN</t>
+  </si>
+  <si>
+    <t>Open admissions policy indicator</t>
+  </si>
+  <si>
+    <t>open_admissions_policy</t>
+  </si>
+  <si>
+    <t>OPENADMP</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Does not enroll first-time students</t>
+  </si>
+  <si>
+    <t>Number of programs offered</t>
+  </si>
+  <si>
+    <t>academics</t>
+  </si>
+  <si>
+    <t>program_reporter.programs_offered</t>
+  </si>
+  <si>
+    <t>PRGMOFR</t>
+  </si>
+  <si>
+    <t>Cost of attendance: estimated books and supplies</t>
+  </si>
+  <si>
+    <t>booksupply</t>
+  </si>
+  <si>
+    <t>BOOKSUPPLY</t>
+  </si>
+  <si>
+    <t>Cost of attendance: on-campus room and board</t>
+  </si>
+  <si>
+    <t>roomboard.oncampus</t>
+  </si>
+  <si>
+    <t>ROOMBOARD_ON</t>
+  </si>
+  <si>
+    <t>Cost of attendance: on-campus other expenses</t>
+  </si>
+  <si>
+    <t>otherexpense.oncampus</t>
+  </si>
+  <si>
+    <t>OTHEREXPENSE_ON</t>
+  </si>
+  <si>
+    <t>Cost of attendance: off-campus room and board</t>
+  </si>
+  <si>
+    <t>roomboard.offcampus</t>
+  </si>
+  <si>
+    <t>ROOMBOARD_OFF</t>
+  </si>
+  <si>
+    <t>Cost of attendance: off-campus other expenses</t>
+  </si>
+  <si>
+    <t>otherexpense.offcampus</t>
+  </si>
+  <si>
+    <t>OTHEREXPENSE_OFF</t>
+  </si>
+  <si>
+    <t>Test score requirements for admission</t>
+  </si>
+  <si>
+    <t>test_requirements</t>
+  </si>
+  <si>
+    <t>ADMCON7</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Recommended</t>
+  </si>
+  <si>
+    <t>Neither required nor recommended</t>
+  </si>
+  <si>
+    <t>Do not know</t>
+  </si>
+  <si>
+    <t>Considered but not required</t>
+  </si>
+  <si>
+    <t>Overall median for average net price</t>
+  </si>
+  <si>
+    <t>avg_net_price.consumer.overall_median</t>
+  </si>
+  <si>
+    <t>MDCOST_ALL</t>
+  </si>
+  <si>
+    <t>Overall median earnings of students working and not enrolled 10 years after entry</t>
+  </si>
+  <si>
+    <t>10_yrs_after_entry.consumer.overall_median</t>
+  </si>
+  <si>
+    <t>MDEARN_ALL</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Highest degree awarded
+ 0 Non-degree-granting
+ 1 Certificate degree
+ 2 Associate degree
+ 3 Bachelor's degree
  4 Graduate degree</t>
-  </si>
-  <si>
-    <t>degrees_awarded.highest</t>
-  </si>
-  <si>
-    <t>HIGHDEG</t>
-  </si>
-  <si>
-    <t>Non-degree-granting</t>
-  </si>
-  <si>
-    <t>Certificate degree</t>
-  </si>
-  <si>
-    <t>Associate degree</t>
-  </si>
-  <si>
-    <t>Bachelor's degree</t>
-  </si>
-  <si>
-    <t>Graduate degree</t>
-  </si>
-  <si>
-    <t>Region (IPEDS)</t>
-  </si>
-  <si>
-    <t>region_id</t>
-  </si>
-  <si>
-    <t>REGION</t>
-  </si>
-  <si>
-    <t>U.S. Service Schools</t>
-  </si>
-  <si>
-    <t>New England (CT, ME, MA, NH, RI, VT)</t>
-  </si>
-  <si>
-    <t>Mid East (DE, DC, MD, NJ, NY, PA)</t>
-  </si>
-  <si>
-    <t>Great Lakes (IL, IN, MI, OH, WI)</t>
-  </si>
-  <si>
-    <t>Plains (IA, KS, MN, MO, NE, ND, SD)</t>
-  </si>
-  <si>
-    <t>Southeast (AL, AR, FL, GA, KY, LA, MS, NC, SC, TN, VA, WV)</t>
-  </si>
-  <si>
-    <t>Southwest (AZ, NM, OK, TX)</t>
-  </si>
-  <si>
-    <t>Rocky Mountains (CO, ID, MT, UT, WY)</t>
-  </si>
-  <si>
-    <t>Far West (AK, CA, HI, NV, OR, WA)</t>
-  </si>
-  <si>
-    <t>Outlying Areas (AS, FM, GU, MH, MP, PR, PW, VI)</t>
-  </si>
-  <si>
-    <t>Locale of institution</t>
-  </si>
-  <si>
-    <t>locale</t>
-  </si>
-  <si>
-    <t>LOCALE</t>
-  </si>
-  <si>
-    <t>City: Large (population of 250,000 or more)</t>
-  </si>
-  <si>
-    <t>City: Midsize (population of at least 100,000 but less than 250,000)</t>
-  </si>
-  <si>
-    <t>City: Small (population less than 100,000)</t>
-  </si>
-  <si>
-    <t>Suburb: Large (outside principal city, in urbanized area with population of 250,000 or more)</t>
-  </si>
-  <si>
-    <t>Suburb: Midsize (outside principal city, in urbanized area with population of at least 100,000 but less than 250,000)</t>
-  </si>
-  <si>
-    <t>Suburb: Small (outside principal city, in urbanized area with population less than 100,000)</t>
-  </si>
-  <si>
-    <t>Town: Fringe (in urban cluster up to 10 miles from an urbanized area)</t>
-  </si>
-  <si>
-    <t>Town: Distant (in urban cluster more than 10 miles and up to 35 miles from an urbanized area)</t>
-  </si>
-  <si>
-    <t>Town: Remote (in urban cluster more than 35 miles from an urbanized area)</t>
-  </si>
-  <si>
-    <t>Rural: Fringe (rural territory up to 5 miles from an urbanized area or up to 2.5 miles from an urban cluster)</t>
-  </si>
-  <si>
-    <t>Rural: Distant (rural territory more than 5 miles but up to 25 miles from an urbanized area or more than 2.5 and up to 10 miles from an urban cluster)</t>
-  </si>
-  <si>
-    <t>Rural: Remote (rural territory more than 25 miles from an urbanized area and more than 10 miles from an urban cluster)</t>
-  </si>
-  <si>
-    <t>Degree of urbanization of institution</t>
-  </si>
-  <si>
-    <t>degree_urbanization</t>
-  </si>
-  <si>
-    <t>LOCALE2</t>
-  </si>
-  <si>
-    <t>Large City (a central city of a CMSA or MSA, with the city having a population greater than or equal to 250,000)</t>
-  </si>
-  <si>
-    <t>Discontinued</t>
-  </si>
-  <si>
-    <t>Mid-Size City (a central city of a CMSA or MSA, with the city having a population less than 250,000)</t>
-  </si>
-  <si>
-    <t>Urban Fringe of a Large City (any territory within a CMSA or MSA of a Large City and defined as urban by the Census Bureau)</t>
-  </si>
-  <si>
-    <t>Urban Fringe of a Mid-Size City (any territory within a CMSA or MSA of a Mid-Size City and defined as urban by the Census Bureau)</t>
-  </si>
-  <si>
-    <t>Large Town (an incorporated place or Census-designated place with a population greater than or equal to 25,000 and located outside a CMSA or MSA)</t>
-  </si>
-  <si>
-    <t>Small Town (an incorporated place or Census-designated place with a population less than 25,000 and greater than or equal to 2,500 and located outside a CMSA or MSA)</t>
-  </si>
-  <si>
-    <t>Rural, Outside MSA (any territory designated as rural by the Census Bureau that is outside a CMSA or MSA of a Large or Mid-Size City)</t>
-  </si>
-  <si>
-    <t>Rural, Inside MSA (any territory designated as rural by the Census Bureau that is within a CMSA or MSA of a Large or Mid-Size City)</t>
-  </si>
-  <si>
-    <t>Carnegie Classification -- size and setting</t>
-  </si>
-  <si>
-    <t>carnegie_size_setting</t>
-  </si>
-  <si>
-    <t>CCSIZSET</t>
-  </si>
-  <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>(Not classified)</t>
-  </si>
-  <si>
-    <t>Two-year, very small</t>
-  </si>
-  <si>
-    <t>Two-year, small</t>
-  </si>
-  <si>
-    <t>Two-year, medium</t>
-  </si>
-  <si>
-    <t>Two-year, large</t>
-  </si>
-  <si>
-    <t>Two-year, very large</t>
-  </si>
-  <si>
-    <t>Four-year, very small, primarily nonresidential</t>
-  </si>
-  <si>
-    <t>Four-year, very small, primarily residential</t>
-  </si>
-  <si>
-    <t>Four-year, very small, highly residential</t>
-  </si>
-  <si>
-    <t>Four-year, small, primarily nonresidential</t>
-  </si>
-  <si>
-    <t>Four-year, small, primarily residential</t>
-  </si>
-  <si>
-    <t>Four-year, small, highly residential</t>
-  </si>
-  <si>
-    <t>Four-year, medium, primarily nonresidential</t>
-  </si>
-  <si>
-    <t>Four-year, medium, primarily residential</t>
-  </si>
-  <si>
-    <t>Four-year, medium, highly residential</t>
-  </si>
-  <si>
-    <t>Four-year, large, primarily nonresidential</t>
-  </si>
-  <si>
-    <t>Four-year, large, primarily residential</t>
-  </si>
-  <si>
-    <t>Four-year, large, highly residential</t>
-  </si>
-  <si>
-    <t>Exclusively graduate/professional</t>
-  </si>
-  <si>
-    <t>Admission rate</t>
-  </si>
-  <si>
-    <t>admissions</t>
-  </si>
-  <si>
-    <t>admission_rate.overall</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>ADM_RATE</t>
-  </si>
-  <si>
-    <t>Midpoint of the ACT cumulative score</t>
-  </si>
-  <si>
-    <t>act_scores.midpoint.cumulative</t>
-  </si>
-  <si>
-    <t>ACTCMMID</t>
-  </si>
-  <si>
-    <t>Average SAT equivalent score of students admitted</t>
-  </si>
-  <si>
-    <t>sat_scores.average.overall</t>
-  </si>
-  <si>
-    <t>SAT_AVG</t>
-  </si>
-  <si>
-    <t>Enrollment of undergraduate certificate/degree-seeking students</t>
-  </si>
-  <si>
-    <t>student</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>UGDS</t>
-  </si>
-  <si>
-    <t>Not available in 2000-2001 datafile</t>
-  </si>
-  <si>
-    <t>Total share of enrollment of undergraduate degree-seeking students who are white</t>
-  </si>
-  <si>
-    <t>demographics.race_ethnicity.white</t>
-  </si>
-  <si>
-    <t>UGDS_WHITE</t>
-  </si>
-  <si>
-    <t>Not available in all datafiles due to changing race/ethnicity category definitions over time. See data_cohort_map</t>
-  </si>
-  <si>
-    <t>Total share of enrollment of undergraduate degree-seeking students who are black</t>
-  </si>
-  <si>
-    <t>demographics.race_ethnicity.black</t>
-  </si>
-  <si>
-    <t>UGDS_BLACK</t>
-  </si>
-  <si>
-    <t>Total share of enrollment of undergraduate degree-seeking students who are Hispanic</t>
-  </si>
-  <si>
-    <t>demographics.race_ethnicity.hispanic</t>
-  </si>
-  <si>
-    <t>UGDS_HISP</t>
-  </si>
-  <si>
-    <t>Total share of enrollment of undergraduate degree-seeking students who are Asian</t>
-  </si>
-  <si>
-    <t>demographics.race_ethnicity.asian</t>
-  </si>
-  <si>
-    <t>UGDS_ASIAN</t>
-  </si>
-  <si>
-    <t>In-state tuition and fees</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>tuition.in_state</t>
-  </si>
-  <si>
-    <t>TUITIONFEE_IN</t>
-  </si>
-  <si>
-    <t>Out-of-state tuition and fees</t>
-  </si>
-  <si>
-    <t>tuition.out_of_state</t>
-  </si>
-  <si>
-    <t>TUITIONFEE_OUT</t>
-  </si>
-  <si>
-    <t>Average faculty salary</t>
-  </si>
-  <si>
-    <t>faculty_salary</t>
-  </si>
-  <si>
-    <t>AVGFACSAL</t>
-  </si>
-  <si>
-    <t>Average faculty salary per month, calculated from the IPEDS Human Resources component. This metric is calculated as the total salary outlays divided by the number of months worked for all full-time nonmedical instructional staff. Prior to the 2011-12 academic year, when months worked were reported in groups, the value for 9-10 months is estimated as 9.5 months and the value for 11-12 months is estimated as 11.5 months. Values prior to the 2003-04 academic year are limited to degree-granting institutions for consistency with values in subsequent academic years.</t>
-  </si>
-  <si>
-    <t>Proportion of faculty that is full-time</t>
-  </si>
-  <si>
-    <t>ft_faculty_rate</t>
-  </si>
-  <si>
-    <t>PFTFAC</t>
-  </si>
-  <si>
-    <t>Proportion of faculty that are employed full time, calculated from the IPEDS Human Resources component. This metric is calculated as the number of full-time nonmedical faculty divided by the total number of nonmedical faculty. Proportions are expressed as decimals rounded to four decimal places, so, for example, 0.1234 equals 12.34 percent.</t>
-  </si>
-  <si>
-    <t>Percentage of undergraduates who receive a Pell Grant</t>
-  </si>
-  <si>
-    <t>aid</t>
-  </si>
-  <si>
-    <t>pell_grant_rate</t>
-  </si>
-  <si>
-    <t>PCTPELL</t>
-  </si>
-  <si>
-    <t>The proportion of undergraduates who received a Pell grant in the academic year, calculated from the IPEDS Student Financial Aid component. This metric is calculated by IPEDS as the quotient of the number of Pell grant recipients divided by the count of all undergraduates for either a fall enrollment cohort (for institutions that primarily follow an academic year calendar system) or a full-year enrollment cohort (for institutions that primarily follow a continuous enrollment or program-based calendar system). Proportions are expressed as decimals rounded to four decimal places, so, for example, 0.1234 equals 12.34 percent. This metric is not available prior to the 2008-09 academic year.</t>
-  </si>
-  <si>
-    <t>Completion rate for first-time, full-time students at four-year institutions (150% of expected time to completion)</t>
-  </si>
-  <si>
-    <t>completion</t>
-  </si>
-  <si>
-    <t>completion_rate_4yr_150nt</t>
-  </si>
-  <si>
-    <t>C150_4</t>
-  </si>
-  <si>
-    <t>The proportion of full-time, first-time, degree/certificate-seeking undergraduates who completed a degree or certificate at the institution within 150 percent of normal time, calculated from the IPEDS Graduation Rates component. Separate metrics are calculated for 4-year institutions and less-than-4-year institutions. This metric is calculated as the number of full-time, first-time, degree/certificate-seeking undergraduates who completed a degree or certificate divided by the number of full-time, first-time, degree/certificate-seeking undergraduates in the corresponding completion rate cohort (D150_4, D150_L4). For full-time, first-time, bachelor's degree-seeking undergraduates, 150 percent of normal time is typically 6 years, and for full-time, first-time, associate's degree-seeking undergraduates it is typically 3 years. For full-time, first-time, certificate-seeking undergraduates, the normal time period varies by the length of the program (for example, 9 months for a certificate with a normal completion time of 6 months). Proportions are expressed as decimals rounded to four decimal places, so, for example, 0.1234 equals 12.34 percent. Pooled figures include two cohorts of students.</t>
-  </si>
-  <si>
-    <t>First-time, full-time student retention rate at four-year institutions</t>
-  </si>
-  <si>
-    <t>retention_rate.four_year.full_time</t>
-  </si>
-  <si>
-    <t>RET_FT4</t>
-  </si>
-  <si>
-    <t>The proportion of full-time, first-time, degree/certificate-seeking undergraduates who were enrolled at the institution in the fall 1 year after starting at the institution, calculated from the IPEDS Fall Enrollment component. Separate metrics are calculated for 4-year institutions and less-than-4-year institutions. The retention rate is calculated as the number of full-time, first-time, degree/certificate-seeking undergraduates enrolled in the fall of the prior academic year that are enrolled in the fall term of the current academic year divided by the number of full-time, first-time, degree/certificate-seeking undergraduates enrolled in the fall of the prior academic year. For 4-year institutions, this metric is limited to full-time, first-time, bachelor's or equivalent degree-seeking undergraduate students. For less-than-4-year institutions, this metric applies to all full-time, first-time, degree/certificate-seeking undergraduate students. This metric is not available prior to the 2004-05 academic year. Proportions are expressed as decimals rounded to four decimal places, so, for example, 0.1234 equals 12.34 percent.</t>
-  </si>
-  <si>
-    <t>Median earnings of students working and not enrolled 10 years after entry</t>
-  </si>
-  <si>
-    <t>earnings</t>
-  </si>
-  <si>
-    <t>10_yrs_after_entry.median</t>
-  </si>
-  <si>
-    <t>MD_EARN_WNE_P10</t>
-  </si>
-  <si>
-    <t>Treasury</t>
-  </si>
-  <si>
-    <t>Total share of enrollment of undergraduate degree-seeking students who are men</t>
-  </si>
-  <si>
-    <t>demographics.men</t>
-  </si>
-  <si>
-    <t>UGDS_MEN</t>
-  </si>
-  <si>
-    <t>Total share of enrollment of undergraduate degree-seeking students who are women</t>
-  </si>
-  <si>
-    <t>demographics.women</t>
-  </si>
-  <si>
-    <t>UGDS_WOMEN</t>
-  </si>
-  <si>
-    <t>Open admissions policy indicator</t>
-  </si>
-  <si>
-    <t>open_admissions_policy</t>
-  </si>
-  <si>
-    <t>OPENADMP</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Does not enroll first-time students</t>
-  </si>
-  <si>
-    <t>Number of programs offered</t>
-  </si>
-  <si>
-    <t>academics</t>
-  </si>
-  <si>
-    <t>program_reporter.programs_offered</t>
-  </si>
-  <si>
-    <t>PRGMOFR</t>
-  </si>
-  <si>
-    <t>Cost of attendance: estimated books and supplies</t>
-  </si>
-  <si>
-    <t>booksupply</t>
-  </si>
-  <si>
-    <t>BOOKSUPPLY</t>
-  </si>
-  <si>
-    <t>Cost of attendance: on-campus room and board</t>
-  </si>
-  <si>
-    <t>roomboard.oncampus</t>
-  </si>
-  <si>
-    <t>ROOMBOARD_ON</t>
-  </si>
-  <si>
-    <t>Cost of attendance: on-campus other expenses</t>
-  </si>
-  <si>
-    <t>otherexpense.oncampus</t>
-  </si>
-  <si>
-    <t>OTHEREXPENSE_ON</t>
-  </si>
-  <si>
-    <t>Cost of attendance: off-campus room and board</t>
-  </si>
-  <si>
-    <t>roomboard.offcampus</t>
-  </si>
-  <si>
-    <t>ROOMBOARD_OFF</t>
-  </si>
-  <si>
-    <t>Cost of attendance: off-campus other expenses</t>
-  </si>
-  <si>
-    <t>otherexpense.offcampus</t>
-  </si>
-  <si>
-    <t>OTHEREXPENSE_OFF</t>
-  </si>
-  <si>
-    <t>Test score requirements for admission</t>
-  </si>
-  <si>
-    <t>test_requirements</t>
-  </si>
-  <si>
-    <t>ADMCON7</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Recommended</t>
-  </si>
-  <si>
-    <t>Neither required nor recommended</t>
-  </si>
-  <si>
-    <t>Do not know</t>
-  </si>
-  <si>
-    <t>Considered but not required</t>
-  </si>
-  <si>
-    <t>Overall median for average net price</t>
-  </si>
-  <si>
-    <t>avg_net_price.consumer.overall_median</t>
-  </si>
-  <si>
-    <t>MDCOST_ALL</t>
-  </si>
-  <si>
-    <t>Overall median earnings of students working and not enrolled 10 years after entry</t>
-  </si>
-  <si>
-    <t>10_yrs_after_entry.consumer.overall_median</t>
-  </si>
-  <si>
-    <t>MDEARN_ALL</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>year</t>
   </si>
 </sst>
 </file>
@@ -734,10 +734,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,17 +1048,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.5" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1139,7 +1142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1165,7 +1168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1191,16 +1194,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>220</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>221</v>
-      </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
@@ -1208,13 +1211,13 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -1254,7 +1257,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1277,15 +1280,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1294,13 +1297,13 @@
         <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
         <v>16</v>
@@ -1309,7 +1312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1317,10 +1320,10 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -1328,10 +1331,10 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -1339,10 +1342,10 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -1350,39 +1353,39 @@
         <v>4</v>
       </c>
       <c r="H14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -1390,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -1401,10 +1404,10 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -1412,10 +1415,10 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -1423,10 +1426,10 @@
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -1434,10 +1437,10 @@
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -1445,10 +1448,10 @@
         <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>24</v>
       </c>
@@ -1456,10 +1459,10 @@
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -1467,10 +1470,10 @@
         <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>24</v>
       </c>
@@ -1478,33 +1481,33 @@
         <v>9</v>
       </c>
       <c r="H24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
         <v>63</v>
       </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
         <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s">
-        <v>65</v>
       </c>
       <c r="G25">
         <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I25" t="s">
         <v>16</v>
@@ -1513,7 +1516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -1521,10 +1524,10 @@
         <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -1532,10 +1535,10 @@
         <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>24</v>
       </c>
@@ -1543,10 +1546,10 @@
         <v>21</v>
       </c>
       <c r="H28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>24</v>
       </c>
@@ -1554,10 +1557,10 @@
         <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>24</v>
       </c>
@@ -1565,10 +1568,10 @@
         <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>24</v>
       </c>
@@ -1576,10 +1579,10 @@
         <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>24</v>
       </c>
@@ -1587,10 +1590,10 @@
         <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>24</v>
       </c>
@@ -1598,10 +1601,10 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>24</v>
       </c>
@@ -1609,10 +1612,10 @@
         <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>24</v>
       </c>
@@ -1620,10 +1623,10 @@
         <v>42</v>
       </c>
       <c r="H35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>24</v>
       </c>
@@ -1631,42 +1634,42 @@
         <v>43</v>
       </c>
       <c r="H36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
         <v>78</v>
       </c>
-      <c r="B37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
         <v>79</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>80</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" t="s">
         <v>81</v>
       </c>
-      <c r="I37" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>24</v>
       </c>
@@ -1674,10 +1677,10 @@
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>24</v>
       </c>
@@ -1685,10 +1688,10 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>24</v>
       </c>
@@ -1696,10 +1699,10 @@
         <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>24</v>
       </c>
@@ -1707,10 +1710,10 @@
         <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>24</v>
       </c>
@@ -1718,10 +1721,10 @@
         <v>6</v>
       </c>
       <c r="H42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>24</v>
       </c>
@@ -1729,10 +1732,10 @@
         <v>7</v>
       </c>
       <c r="H43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>24</v>
       </c>
@@ -1740,36 +1743,36 @@
         <v>8</v>
       </c>
       <c r="H44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
         <v>91</v>
-      </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s">
-        <v>92</v>
       </c>
       <c r="G45">
         <v>-2</v>
       </c>
       <c r="H45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I45" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>24</v>
       </c>
@@ -1777,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>24</v>
       </c>
@@ -1788,10 +1791,10 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>24</v>
       </c>
@@ -1799,10 +1802,10 @@
         <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>24</v>
       </c>
@@ -1810,10 +1813,10 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>24</v>
       </c>
@@ -1821,10 +1824,10 @@
         <v>4</v>
       </c>
       <c r="H50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>24</v>
       </c>
@@ -1832,10 +1835,10 @@
         <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>24</v>
       </c>
@@ -1843,10 +1846,10 @@
         <v>6</v>
       </c>
       <c r="H52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>24</v>
       </c>
@@ -1854,10 +1857,10 @@
         <v>7</v>
       </c>
       <c r="H53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>24</v>
       </c>
@@ -1865,10 +1868,10 @@
         <v>8</v>
       </c>
       <c r="H54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>24</v>
       </c>
@@ -1876,10 +1879,10 @@
         <v>9</v>
       </c>
       <c r="H55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>24</v>
       </c>
@@ -1887,10 +1890,10 @@
         <v>10</v>
       </c>
       <c r="H56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>24</v>
       </c>
@@ -1898,10 +1901,10 @@
         <v>11</v>
       </c>
       <c r="H57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>24</v>
       </c>
@@ -1909,10 +1912,10 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>24</v>
       </c>
@@ -1920,21 +1923,21 @@
         <v>13</v>
       </c>
       <c r="H59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60">
-        <v>14</v>
-      </c>
-      <c r="H60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>24</v>
       </c>
@@ -1942,21 +1945,21 @@
         <v>15</v>
       </c>
       <c r="H61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62">
-        <v>16</v>
-      </c>
-      <c r="H62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>24</v>
       </c>
@@ -1964,10 +1967,10 @@
         <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>24</v>
       </c>
@@ -1975,96 +1978,96 @@
         <v>18</v>
       </c>
       <c r="H64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
         <v>113</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>114</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>115</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
+        <v>115</v>
+      </c>
+      <c r="F65" t="s">
         <v>116</v>
       </c>
-      <c r="E65" t="s">
-        <v>116</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>117</v>
       </c>
-      <c r="I65" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" t="s">
         <v>118</v>
       </c>
-      <c r="B66" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" t="s">
+        <v>115</v>
+      </c>
+      <c r="F66" t="s">
         <v>119</v>
       </c>
-      <c r="D66" t="s">
-        <v>116</v>
-      </c>
-      <c r="E66" t="s">
-        <v>116</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>120</v>
       </c>
-      <c r="I66" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" t="s">
         <v>121</v>
       </c>
-      <c r="B67" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" t="s">
         <v>122</v>
       </c>
-      <c r="D67" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" t="s">
-        <v>116</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>123</v>
       </c>
-      <c r="I67" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
         <v>124</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>125</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s">
         <v>126</v>
-      </c>
-      <c r="D68" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" t="s">
-        <v>127</v>
       </c>
       <c r="I68" t="s">
         <v>16</v>
@@ -2073,24 +2076,24 @@
         <v>17</v>
       </c>
       <c r="K68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" t="s">
         <v>129</v>
       </c>
-      <c r="B69" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>115</v>
+      </c>
+      <c r="F69" t="s">
         <v>130</v>
-      </c>
-      <c r="D69" t="s">
-        <v>116</v>
-      </c>
-      <c r="F69" t="s">
-        <v>131</v>
       </c>
       <c r="I69" t="s">
         <v>16</v>
@@ -2099,24 +2102,24 @@
         <v>17</v>
       </c>
       <c r="K69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" t="s">
         <v>133</v>
       </c>
-      <c r="B70" t="s">
-        <v>125</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>115</v>
+      </c>
+      <c r="F70" t="s">
         <v>134</v>
-      </c>
-      <c r="D70" t="s">
-        <v>116</v>
-      </c>
-      <c r="F70" t="s">
-        <v>135</v>
       </c>
       <c r="I70" t="s">
         <v>16</v>
@@ -2125,24 +2128,24 @@
         <v>17</v>
       </c>
       <c r="K70" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" t="s">
         <v>136</v>
       </c>
-      <c r="B71" t="s">
-        <v>125</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>115</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="D71" t="s">
-        <v>116</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="I71" t="s">
         <v>16</v>
@@ -2151,24 +2154,24 @@
         <v>17</v>
       </c>
       <c r="K71" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" t="s">
         <v>139</v>
       </c>
-      <c r="B72" t="s">
-        <v>125</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>115</v>
+      </c>
+      <c r="F72" t="s">
         <v>140</v>
-      </c>
-      <c r="D72" t="s">
-        <v>116</v>
-      </c>
-      <c r="F72" t="s">
-        <v>141</v>
       </c>
       <c r="I72" t="s">
         <v>16</v>
@@ -2177,251 +2180,251 @@
         <v>17</v>
       </c>
       <c r="K72" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" t="s">
         <v>142</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>143</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
         <v>144</v>
       </c>
-      <c r="D73" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="I73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>145</v>
       </c>
-      <c r="I73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" t="s">
         <v>146</v>
       </c>
-      <c r="B74" t="s">
-        <v>143</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
       </c>
-      <c r="D74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>148</v>
       </c>
-      <c r="I74" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" t="s">
         <v>149</v>
       </c>
-      <c r="B75" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" t="s">
         <v>150</v>
       </c>
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="I75" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" t="s">
         <v>151</v>
       </c>
-      <c r="I75" t="s">
-        <v>16</v>
-      </c>
-      <c r="K75" t="s">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
         <v>153</v>
       </c>
-      <c r="B76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>115</v>
+      </c>
+      <c r="F76" t="s">
         <v>154</v>
       </c>
-      <c r="D76" t="s">
-        <v>116</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="I76" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" t="s">
         <v>155</v>
       </c>
-      <c r="I76" t="s">
-        <v>16</v>
-      </c>
-      <c r="K76" t="s">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
         <v>157</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>158</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>115</v>
+      </c>
+      <c r="F77" t="s">
         <v>159</v>
       </c>
-      <c r="D77" t="s">
-        <v>116</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="I77" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" t="s">
         <v>160</v>
       </c>
-      <c r="I77" t="s">
-        <v>16</v>
-      </c>
-      <c r="K77" t="s">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
         <v>162</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>163</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>115</v>
+      </c>
+      <c r="F78" t="s">
         <v>164</v>
       </c>
-      <c r="D78" t="s">
-        <v>116</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="I78" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" t="s">
         <v>165</v>
       </c>
-      <c r="I78" t="s">
-        <v>16</v>
-      </c>
-      <c r="K78" t="s">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" t="s">
         <v>167</v>
       </c>
-      <c r="B79" t="s">
-        <v>125</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>115</v>
+      </c>
+      <c r="F79" t="s">
         <v>168</v>
       </c>
-      <c r="D79" t="s">
-        <v>116</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="I79" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" t="s">
         <v>169</v>
       </c>
-      <c r="I79" t="s">
-        <v>16</v>
-      </c>
-      <c r="K79" t="s">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
         <v>171</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>172</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s">
         <v>173</v>
       </c>
-      <c r="D80" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="I80" t="s">
         <v>174</v>
-      </c>
-      <c r="I80" t="s">
-        <v>175</v>
       </c>
       <c r="J80" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" t="s">
         <v>176</v>
       </c>
-      <c r="B81" t="s">
-        <v>125</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>115</v>
+      </c>
+      <c r="F81" t="s">
         <v>177</v>
       </c>
-      <c r="D81" t="s">
-        <v>116</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="I81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>178</v>
       </c>
-      <c r="I81" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" t="s">
         <v>179</v>
       </c>
-      <c r="B82" t="s">
-        <v>125</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>115</v>
+      </c>
+      <c r="F82" t="s">
         <v>180</v>
       </c>
-      <c r="D82" t="s">
-        <v>116</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="I82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>181</v>
       </c>
-      <c r="I82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" t="s">
         <v>182</v>
       </c>
-      <c r="B83" t="s">
-        <v>24</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
         <v>183</v>
-      </c>
-      <c r="D83" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" t="s">
-        <v>184</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -2433,7 +2436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>24</v>
       </c>
@@ -2441,10 +2444,10 @@
         <v>2</v>
       </c>
       <c r="H84" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>24</v>
       </c>
@@ -2452,138 +2455,138 @@
         <v>3</v>
       </c>
       <c r="H85" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
         <v>187</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>188</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" t="s">
         <v>189</v>
       </c>
-      <c r="D86" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="I86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>190</v>
       </c>
-      <c r="I86" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
+        <v>142</v>
+      </c>
+      <c r="C87" t="s">
         <v>191</v>
       </c>
-      <c r="B87" t="s">
-        <v>143</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s">
         <v>192</v>
       </c>
-      <c r="D87" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="I87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>193</v>
       </c>
-      <c r="I87" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
+        <v>142</v>
+      </c>
+      <c r="C88" t="s">
         <v>194</v>
       </c>
-      <c r="B88" t="s">
-        <v>143</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
         <v>195</v>
       </c>
-      <c r="D88" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="I88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>196</v>
       </c>
-      <c r="I88" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="B89" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" t="s">
         <v>197</v>
       </c>
-      <c r="B89" t="s">
-        <v>143</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" t="s">
         <v>198</v>
       </c>
-      <c r="D89" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="I89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>199</v>
       </c>
-      <c r="I89" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="B90" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" t="s">
         <v>200</v>
       </c>
-      <c r="B90" t="s">
-        <v>143</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" t="s">
         <v>201</v>
       </c>
-      <c r="D90" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="I90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>202</v>
       </c>
-      <c r="I90" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" t="s">
         <v>203</v>
       </c>
-      <c r="B91" t="s">
-        <v>143</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" t="s">
         <v>204</v>
       </c>
-      <c r="D91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="I91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>205</v>
       </c>
-      <c r="I91" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" t="s">
         <v>206</v>
-      </c>
-      <c r="B92" t="s">
-        <v>114</v>
-      </c>
-      <c r="C92" t="s">
-        <v>207</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
@@ -2592,13 +2595,13 @@
         <v>35</v>
       </c>
       <c r="F92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I92" t="s">
         <v>16</v>
@@ -2607,68 +2610,68 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G93">
         <v>2</v>
       </c>
       <c r="H93" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G94">
         <v>3</v>
       </c>
       <c r="H94" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G95">
         <v>4</v>
       </c>
       <c r="H95" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G96">
         <v>5</v>
       </c>
       <c r="H96" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" t="s">
         <v>214</v>
       </c>
-      <c r="B97" t="s">
-        <v>143</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>115</v>
+      </c>
+      <c r="E97" t="s">
+        <v>115</v>
+      </c>
+      <c r="F97" t="s">
         <v>215</v>
-      </c>
-      <c r="D97" t="s">
-        <v>116</v>
-      </c>
-      <c r="E97" t="s">
-        <v>116</v>
-      </c>
-      <c r="F97" t="s">
-        <v>216</v>
       </c>
       <c r="I97" t="s">
         <v>16</v>
@@ -2677,27 +2680,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>216</v>
+      </c>
+      <c r="B98" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" t="s">
         <v>217</v>
       </c>
-      <c r="B98" t="s">
-        <v>172</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>115</v>
+      </c>
+      <c r="E98" t="s">
+        <v>115</v>
+      </c>
+      <c r="F98" t="s">
         <v>218</v>
       </c>
-      <c r="D98" t="s">
-        <v>116</v>
-      </c>
-      <c r="E98" t="s">
-        <v>116</v>
-      </c>
-      <c r="F98" t="s">
-        <v>219</v>
-      </c>
       <c r="I98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J98" t="s">
         <v>17</v>
